--- a/dataset/original/cpi2020.xlsx
+++ b/dataset/original/cpi2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marmos91/Projects/Fra/correlation/dataset/original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marmos91/Projects/Fra/politics-in-covid/dataset/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022BF65F-B1EE-7B4D-B8F6-DA6C5B89511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EDB49F-3E5B-BA40-A9D5-C2E5F4A6EB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cpi" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>CHL</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>ESP</t>
   </si>
   <si>
-    <t>Korea, South</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -1203,6 +1197,12 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2134,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3932,10 +3932,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>48</v>
@@ -4000,13 +4000,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="5">
         <v>66</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>27</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>48</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>48</v>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>67</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>23</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>27</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>23</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" s="5">
         <v>60</v>
@@ -4612,10 +4612,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>27</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>67</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>23</v>
@@ -4816,10 +4816,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>23</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>48</v>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="5">
         <v>58</v>
@@ -5020,10 +5020,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>48</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>23</v>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>23</v>
@@ -5224,13 +5224,13 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D46" s="5">
         <v>56</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>23</v>
@@ -5360,10 +5360,10 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>48</v>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>48</v>
@@ -5496,10 +5496,10 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>23</v>
@@ -5564,10 +5564,10 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>67</v>
@@ -5632,13 +5632,13 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="5">
         <v>54</v>
@@ -5700,10 +5700,10 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>48</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>23</v>
@@ -5836,10 +5836,10 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>23</v>
@@ -5904,13 +5904,13 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="5">
         <v>53</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>67</v>
@@ -6040,10 +6040,10 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>27</v>
@@ -6108,13 +6108,13 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" s="5">
         <v>51</v>
@@ -6176,10 +6176,10 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>23</v>
@@ -6244,13 +6244,13 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61" s="5">
         <v>49</v>
@@ -6312,10 +6312,10 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>67</v>
@@ -6380,10 +6380,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>23</v>
@@ -6448,13 +6448,13 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" s="5">
         <v>47</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>23</v>
@@ -6582,10 +6582,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>48</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="5">
         <v>47</v>
@@ -6718,13 +6718,13 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" s="5">
         <v>45</v>
@@ -6786,13 +6786,13 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="5">
         <v>45</v>
@@ -6854,10 +6854,10 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>23</v>
@@ -6922,10 +6922,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>23</v>
@@ -6990,10 +6990,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>48</v>
@@ -7058,10 +7058,10 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>23</v>
@@ -7126,13 +7126,13 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="5">
         <v>44</v>
@@ -7194,10 +7194,10 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>67</v>
@@ -7262,13 +7262,13 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="5">
         <v>43</v>
@@ -7330,10 +7330,10 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>27</v>
@@ -7398,10 +7398,10 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>27</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>48</v>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>67</v>
@@ -7602,10 +7602,10 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>27</v>
@@ -7670,10 +7670,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>67</v>
@@ -7738,10 +7738,10 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>27</v>
@@ -7806,13 +7806,13 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="5">
         <v>41</v>
@@ -7874,10 +7874,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>48</v>
@@ -7942,13 +7942,13 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="5">
         <v>41</v>
@@ -8010,13 +8010,13 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" s="5">
         <v>40</v>
@@ -8078,10 +8078,10 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>27</v>
@@ -8146,10 +8146,10 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>67</v>
@@ -8214,10 +8214,10 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>27</v>
@@ -8282,10 +8282,10 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>48</v>
@@ -8350,13 +8350,13 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D92" s="5">
         <v>40</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>48</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>48</v>
@@ -8554,10 +8554,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>48</v>
@@ -8622,13 +8622,13 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D96" s="5">
         <v>38</v>
@@ -8690,13 +8690,13 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D97" s="5">
         <v>38</v>
@@ -8758,10 +8758,10 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>48</v>
@@ -8826,13 +8826,13 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D99" s="5">
         <v>38</v>
@@ -8894,10 +8894,10 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>27</v>
@@ -8962,10 +8962,10 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>48</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D102" s="5">
         <v>38</v>
@@ -9098,13 +9098,13 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="5">
         <v>37</v>
@@ -9166,10 +9166,10 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>27</v>
@@ -9234,13 +9234,13 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D105" s="5">
         <v>36</v>
@@ -9302,10 +9302,10 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>67</v>
@@ -9370,13 +9370,13 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D107" s="5">
         <v>36</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>48</v>
@@ -9506,13 +9506,13 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D109" s="5">
         <v>36</v>
@@ -9574,10 +9574,10 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>27</v>
@@ -9642,10 +9642,10 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>27</v>
@@ -9710,13 +9710,13 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D112" s="5">
         <v>35</v>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>27</v>
@@ -9846,13 +9846,13 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D114" s="5">
         <v>35</v>
@@ -9914,10 +9914,10 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>48</v>
@@ -9982,13 +9982,13 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D116" s="5">
         <v>34</v>
@@ -10050,10 +10050,10 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>27</v>
@@ -10118,10 +10118,10 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>67</v>
@@ -10186,13 +10186,13 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D119" s="5">
         <v>33</v>
@@ -10254,10 +10254,10 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>27</v>
@@ -10322,13 +10322,13 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D121" s="5">
         <v>33</v>
@@ -10390,13 +10390,13 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D122" s="5">
         <v>33</v>
@@ -10458,13 +10458,13 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D123" s="5">
         <v>33</v>
@@ -10526,13 +10526,13 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D124" s="5">
         <v>32</v>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>48</v>
@@ -10662,13 +10662,13 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D126" s="5">
         <v>31</v>
@@ -10730,13 +10730,13 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D127" s="5">
         <v>31</v>
@@ -10798,10 +10798,10 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>48</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>27</v>
@@ -10934,13 +10934,13 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D130" s="5">
         <v>30</v>
@@ -11002,13 +11002,13 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D131" s="5">
         <v>30</v>
@@ -11070,13 +11070,13 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D132" s="5">
         <v>30</v>
@@ -11138,13 +11138,13 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D133" s="5">
         <v>30</v>
@@ -11206,13 +11206,13 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D134" s="5">
         <v>30</v>
@@ -11274,10 +11274,10 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>27</v>
@@ -11342,13 +11342,13 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D136" s="5">
         <v>29</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D137" s="5">
         <v>29</v>
@@ -11478,10 +11478,10 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>48</v>
@@ -11546,13 +11546,13 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D139" s="5">
         <v>28</v>
@@ -11614,13 +11614,13 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D140" s="5">
         <v>28</v>
@@ -11682,10 +11682,10 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>27</v>
@@ -11750,10 +11750,10 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>48</v>
@@ -11818,13 +11818,13 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D143" s="5">
         <v>27</v>
@@ -11886,13 +11886,13 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D144" s="5">
         <v>27</v>
@@ -11954,10 +11954,10 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>27</v>
@@ -12022,13 +12022,13 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D146" s="5">
         <v>27</v>
@@ -12090,10 +12090,10 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>27</v>
@@ -12158,13 +12158,13 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D148" s="5">
         <v>26</v>
@@ -12226,13 +12226,13 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D149" s="5">
         <v>26</v>
@@ -12294,13 +12294,13 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D150" s="5">
         <v>25</v>
@@ -12362,10 +12362,10 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>48</v>
@@ -12430,10 +12430,10 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>67</v>
@@ -12498,10 +12498,10 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>67</v>
@@ -12566,13 +12566,13 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D154" s="5">
         <v>25</v>
@@ -12634,13 +12634,13 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D155" s="5">
         <v>25</v>
@@ -12702,13 +12702,13 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D156" s="5">
         <v>25</v>
@@ -12770,13 +12770,13 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D157" s="5">
         <v>25</v>
@@ -12838,10 +12838,10 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>48</v>
@@ -12906,13 +12906,13 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D159" s="5">
         <v>24</v>
@@ -12974,10 +12974,10 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>48</v>
@@ -13042,10 +13042,10 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>27</v>
@@ -13110,13 +13110,13 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D162" s="5">
         <v>21</v>
@@ -13178,13 +13178,13 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D163" s="5">
         <v>21</v>
@@ -13246,13 +13246,13 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D164" s="5">
         <v>21</v>
@@ -13314,10 +13314,10 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>67</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>27</v>
@@ -13450,13 +13450,13 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D167" s="5">
         <v>19</v>
@@ -13518,13 +13518,13 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D168" s="5">
         <v>19</v>
@@ -13586,13 +13586,13 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D169" s="5">
         <v>19</v>
@@ -13654,13 +13654,13 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D170" s="5">
         <v>19</v>
@@ -13722,13 +13722,13 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D171" s="5">
         <v>18</v>
@@ -13790,10 +13790,10 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>48</v>
@@ -13858,10 +13858,10 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>27</v>
@@ -13926,10 +13926,10 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>67</v>
@@ -13994,13 +13994,13 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D175" s="5">
         <v>16</v>
@@ -14062,13 +14062,13 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D176" s="5">
         <v>16</v>
@@ -14130,10 +14130,10 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>48</v>
@@ -14198,10 +14198,10 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>67</v>
@@ -14266,10 +14266,10 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>67</v>
@@ -14334,13 +14334,13 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D180" s="5">
         <v>12</v>
@@ -14402,13 +14402,13 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D181" s="5">
         <v>12</v>
@@ -14476,6 +14476,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D8E175179AF8F24496A086AFA4A7E790" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee6608ed9db5ca6c9a74b4c669ff9a26">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d8df634-3953-4f1e-8801-eac425eaf9e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c87f96e5fc692e1efbf779c21a70157" ns2:_="">
     <xsd:import namespace="6d8df634-3953-4f1e-8801-eac425eaf9e1"/>
@@ -14607,22 +14622,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36611A2-99F7-426D-AC00-D63A281B8FE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C1F188-6956-49D0-A8CC-D11308C45BCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDC81A1B-14A4-4540-A1D0-3B26112A93D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14638,21 +14655,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36611A2-99F7-426D-AC00-D63A281B8FE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07C1F188-6956-49D0-A8CC-D11308C45BCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>